--- a/ToeicWeb/wwwroot/adminn/upload/tetst.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/tetst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D411C03F-E070-463A-8947-35C85DEA2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC3045-D7AF-4D8D-81E8-16A12442E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21BD120A-1211-48AB-A86D-2FE6F04A7E51}"/>
   </bookViews>
@@ -96,16 +96,16 @@
     <t>anh4</t>
   </si>
   <si>
-    <t>num1</t>
-  </si>
-  <si>
-    <t>num2</t>
-  </si>
-  <si>
-    <t>num3</t>
-  </si>
-  <si>
-    <t>num4</t>
+    <t>1.num1</t>
+  </si>
+  <si>
+    <t>1.num2</t>
+  </si>
+  <si>
+    <t>1.num3</t>
+  </si>
+  <si>
+    <t>1.num4</t>
   </si>
 </sst>
 </file>
